--- a/LF/PreTAS/Senegal/b_DSA_COVID_Site_visit_v2.xlsx
+++ b/LF/PreTAS/Senegal/b_DSA_COVID_Site_visit_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0B8935-0302-4AFD-804C-2D2AFB575799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7EE6514-88E7-4D8B-9186-5FB5F38DAF73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,21 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="285">
   <si>
     <t>type</t>
   </si>
@@ -108,6 +118,9 @@
     <t>(first and last name):</t>
   </si>
   <si>
+    <t>Superviseur (prénom et nom de famille)</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
@@ -747,9 +760,6 @@
     <t>site name</t>
   </si>
   <si>
-    <t>Nom du site</t>
-  </si>
-  <si>
     <t>select_one district</t>
   </si>
   <si>
@@ -771,256 +781,112 @@
     <t>dist_name</t>
   </si>
   <si>
-    <t>Koumpentoum</t>
-  </si>
-  <si>
-    <t>Bakel</t>
-  </si>
-  <si>
-    <t>Bambey</t>
-  </si>
-  <si>
-    <t>Mbacké </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vélingara </t>
-  </si>
-  <si>
-    <t>Tivaouane </t>
-  </si>
-  <si>
-    <t>Thiadiaye</t>
-  </si>
-  <si>
-    <t>Joal </t>
-  </si>
-  <si>
-    <t>Mbour</t>
-  </si>
-  <si>
-    <t>Thiès</t>
-  </si>
-  <si>
-    <t>Kidira</t>
-  </si>
-  <si>
-    <t>Dianké Makha</t>
-  </si>
-  <si>
-    <t>Tambacounda</t>
-  </si>
-  <si>
     <t>site</t>
   </si>
   <si>
-    <t>Sentinelle Lycounda peulh</t>
-  </si>
-  <si>
-    <t>Sentinelle Sinthiou goundo</t>
-  </si>
-  <si>
-    <t>Sentinelle Sira doundou</t>
-  </si>
-  <si>
-    <t>Sentinelle Bambey Sérère</t>
-  </si>
-  <si>
-    <t>Sentinelle M’Boul Kael</t>
-  </si>
-  <si>
-    <t>Sentinelle Kénéba Yéro</t>
-  </si>
-  <si>
-    <t>Sentinelle Taïba SANTHE</t>
-  </si>
-  <si>
-    <t>Sentinelle Mboulouctène Secco</t>
-  </si>
-  <si>
-    <t>Sentinelle Ndiarogne sérère</t>
-  </si>
-  <si>
-    <t>Sentinelle Sinthiou Keita</t>
-  </si>
-  <si>
-    <t>Sentinelle Tassette Peul</t>
-  </si>
-  <si>
-    <t>sentinelle_lycounda_peulh</t>
-  </si>
-  <si>
-    <t>sentinelle_sinthiou_goundo</t>
-  </si>
-  <si>
-    <t>sentinelle_sira_doundou</t>
-  </si>
-  <si>
-    <t>sentinelle_bambey_serere</t>
-  </si>
-  <si>
-    <t>sentinelle_mboul_kael</t>
-  </si>
-  <si>
-    <t>sentinelle_keneba_yero</t>
-  </si>
-  <si>
-    <t>sentinelle_taiba_santhe</t>
-  </si>
-  <si>
-    <t>sentinelle_mboulouctène_secco</t>
-  </si>
-  <si>
-    <t>sentinelle_ndiarogne_serere</t>
-  </si>
-  <si>
-    <t>sentinelle_sinthiou_keita</t>
-  </si>
-  <si>
-    <t>sentinelle_tassette_peul</t>
-  </si>
-  <si>
-    <t>Mbacke</t>
-  </si>
-  <si>
-    <t>Tivaouane</t>
-  </si>
-  <si>
-    <t>Joal</t>
-  </si>
-  <si>
-    <t>Thies</t>
-  </si>
-  <si>
-    <t>Dianke_Makha</t>
-  </si>
-  <si>
     <t>b DSA COVID Site v2</t>
   </si>
   <si>
-    <t>b_dsa_covid_site_v2_senegal</t>
-  </si>
-  <si>
-    <t>Kolda</t>
-  </si>
-  <si>
-    <t>Velingara</t>
-  </si>
-  <si>
-    <t>cont_dialacoto_gouloumbou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cont_payar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cont_mansekodji  </t>
-  </si>
-  <si>
-    <t>cont_gathiary</t>
-  </si>
-  <si>
-    <t>cont_gourel_mandiou-gabou</t>
-  </si>
-  <si>
-    <t>cont_bani_israel</t>
-  </si>
-  <si>
-    <t>cont_bode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cont_ouassadou2 </t>
-  </si>
-  <si>
-    <t>cont_bouborel</t>
-  </si>
-  <si>
-    <t>cont_sare_bilaly</t>
-  </si>
-  <si>
-    <t>cont_hanene</t>
-  </si>
-  <si>
-    <t>cont_nguedji_martin</t>
-  </si>
-  <si>
-    <t>cont_ndiaye_bopp</t>
-  </si>
-  <si>
-    <t>cont_sandiara</t>
-  </si>
-  <si>
-    <t>cont_sinthiane_serere</t>
-  </si>
-  <si>
-    <t>cont_refane</t>
-  </si>
-  <si>
-    <t>cont_dalla_escale </t>
-  </si>
-  <si>
-    <t>Contrôle Dialacoto - Gouloumbou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle Payar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle Mansékodji  </t>
-  </si>
-  <si>
-    <t>Contrôle Gathiary</t>
-  </si>
-  <si>
-    <t>Contrôle Gourel Mandiou - Gabou</t>
-  </si>
-  <si>
-    <t>Contrôle Bani Israel</t>
-  </si>
-  <si>
-    <t>Contrôle Bodé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle Ouassadou2 </t>
-  </si>
-  <si>
-    <t>Contrôle Bouborel</t>
-  </si>
-  <si>
-    <t>Contrôle Saré Bilaly</t>
-  </si>
-  <si>
-    <t>Contrôle Hanène</t>
-  </si>
-  <si>
-    <t>Contrôle Nguedji Martin</t>
-  </si>
-  <si>
-    <t>Contrôle Ndiaye Bopp</t>
-  </si>
-  <si>
-    <t>Contrôle Sandiara</t>
-  </si>
-  <si>
-    <t>Contrôle Sinthiane Sérère</t>
-  </si>
-  <si>
-    <t>Contrôle Refane</t>
-  </si>
-  <si>
-    <t>Contrôle Dalla Escale </t>
+    <t>b_dsa_covid_site_v2_benin</t>
+  </si>
+  <si>
+    <t>Za-Kpota</t>
+  </si>
+  <si>
+    <t>Cove</t>
+  </si>
+  <si>
+    <t>Covè</t>
+  </si>
+  <si>
+    <t>Ouinhi</t>
+  </si>
+  <si>
+    <t>Zagnanado</t>
+  </si>
+  <si>
+    <t>Adjido</t>
+  </si>
+  <si>
+    <t>Kpakpassa</t>
+  </si>
+  <si>
+    <t>Za-Agbokpa</t>
+  </si>
+  <si>
+    <t>Goblidji</t>
+  </si>
+  <si>
+    <t>Aizando</t>
+  </si>
+  <si>
+    <t>Hounkpa</t>
+  </si>
+  <si>
+    <t>Mafongou</t>
+  </si>
+  <si>
+    <t>Dangbehonou</t>
+  </si>
+  <si>
+    <t>Kpagoudo</t>
+  </si>
+  <si>
+    <t>Adjido, Za-Kpota 101</t>
+  </si>
+  <si>
+    <t>Kpakpassa, Kpozoun 102</t>
+  </si>
+  <si>
+    <t>Za-Agbokpa, Za-Kpota 103</t>
+  </si>
+  <si>
+    <t>Goblidji, Don-Tan 104</t>
+  </si>
+  <si>
+    <t>Aissinhoué, Baname 105</t>
+  </si>
+  <si>
+    <t>Dangbehoué, Baname 106</t>
+  </si>
+  <si>
+    <t>Aizando, Dasso 107</t>
+  </si>
+  <si>
+    <t>Hounkpa, Dasso 108</t>
+  </si>
+  <si>
+    <t>Mafongou, Ouinhi centre 109</t>
+  </si>
+  <si>
+    <t>Zounsègo, Adogbe 110</t>
+  </si>
+  <si>
+    <t>Dangbehonou, Lainta-Cogbe 111</t>
+  </si>
+  <si>
+    <t>Kpagoudo, Gounli 112</t>
+  </si>
+  <si>
+    <t>Aissinhoue</t>
+  </si>
+  <si>
+    <t>Dangbehoue</t>
+  </si>
+  <si>
+    <t>Zounsego</t>
+  </si>
+  <si>
+    <t>constraint_message::French (fr)</t>
+  </si>
+  <si>
+    <t>Nom du site/village</t>
   </si>
   <si>
     <t>default_language</t>
   </si>
   <si>
     <t>French (fr)</t>
-  </si>
-  <si>
-    <t>constraint_message::French (fr)</t>
-  </si>
-  <si>
-    <t>Superviseur</t>
-  </si>
-  <si>
-    <t>(prénom et nom de famille)</t>
   </si>
 </sst>
 </file>
@@ -1117,12 +983,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1131,7 +1012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,8 +1079,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1592,9 +1474,9 @@
   <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="16.5" customHeight="1"/>
@@ -1635,10 +1517,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -1650,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>8</v>
@@ -1671,7 +1553,7 @@
         <v>13</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>14</v>
@@ -1781,7 +1663,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1800,33 +1682,30 @@
         <v>27</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>332</v>
+        <v>28</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:19" ht="16.5" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1846,7 +1725,7 @@
         <v>245</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1863,17 +1742,17 @@
         <v>246</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1883,1375 +1762,1375 @@
     </row>
     <row r="11" spans="1:19" s="12" customFormat="1" ht="12.75">
       <c r="A11" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="16.5" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:19" ht="16.5" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:19" ht="16.5" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:19" ht="16.5" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" s="18" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="12.75">
       <c r="A19" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1">
       <c r="A40" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1">
       <c r="A41" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1">
       <c r="A42" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1">
       <c r="A43" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1">
       <c r="A44" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1">
       <c r="A47" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1">
       <c r="A48" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1">
       <c r="A49" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1">
       <c r="A51" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1">
       <c r="A54" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1">
       <c r="A55" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1">
       <c r="A56" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1">
       <c r="A57" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1">
       <c r="A58" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1">
       <c r="A59" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1">
       <c r="A60" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1">
       <c r="A61" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11" s="18" customFormat="1" ht="16.5" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F62" s="19"/>
     </row>
     <row r="63" spans="1:11" s="12" customFormat="1" ht="12.75">
       <c r="A63" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1">
       <c r="A64" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1">
       <c r="A65" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1">
       <c r="A66" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1">
       <c r="A67" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1">
       <c r="A68" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1">
       <c r="A69" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1">
       <c r="A70" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1">
       <c r="A71" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1">
       <c r="A72" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1">
       <c r="A73" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1">
       <c r="A74" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1">
       <c r="A75" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
     </row>
     <row r="76" spans="1:11" s="18" customFormat="1" ht="16.5" customHeight="1">
       <c r="A76" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F76" s="19"/>
     </row>
     <row r="77" spans="1:11" s="12" customFormat="1" ht="12.75">
       <c r="A77" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1">
@@ -3259,24 +3138,24 @@
         <v>24</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11" s="18" customFormat="1" ht="16.5" customHeight="1">
       <c r="A79" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F79" s="19"/>
     </row>
@@ -3285,23 +3164,23 @@
         <v>13</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="16.5" customHeight="1">
@@ -3309,53 +3188,53 @@
         <v>24</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:16" ht="16.5" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:16" ht="16.5" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
@@ -3410,7 +3289,7 @@
     </row>
     <row r="92" spans="1:16" ht="16.5" customHeight="1">
       <c r="P92" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3423,11 +3302,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" customHeight="1"/>
@@ -3439,9 +3318,9 @@
     <col min="7" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3450,766 +3329,349 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B7" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B8" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1">
+      <c r="B9" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+      <c r="B10" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>285</v>
+        <v>249</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>275</v>
+        <v>249</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>265</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B24" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B38" t="s">
-        <v>300</v>
-      </c>
-      <c r="C38" t="s">
-        <v>317</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B39" t="s">
-        <v>301</v>
-      </c>
-      <c r="C39" t="s">
-        <v>318</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B40" t="s">
-        <v>302</v>
-      </c>
-      <c r="C40" t="s">
-        <v>319</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B41" t="s">
-        <v>303</v>
-      </c>
-      <c r="C41" t="s">
-        <v>320</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B42" t="s">
-        <v>304</v>
-      </c>
-      <c r="C42" t="s">
-        <v>321</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B43" t="s">
-        <v>305</v>
-      </c>
-      <c r="C43" t="s">
-        <v>322</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B44" t="s">
-        <v>306</v>
-      </c>
-      <c r="C44" t="s">
-        <v>323</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F44" s="20"/>
-    </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B45" t="s">
-        <v>307</v>
-      </c>
-      <c r="C45" t="s">
-        <v>324</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F45" s="20"/>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B46" t="s">
-        <v>308</v>
-      </c>
-      <c r="C46" t="s">
-        <v>325</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F46" s="20"/>
-    </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B47" t="s">
-        <v>309</v>
-      </c>
-      <c r="C47" t="s">
-        <v>326</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F47" s="20"/>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B48" t="s">
-        <v>310</v>
-      </c>
-      <c r="C48" t="s">
-        <v>327</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F48" s="20"/>
+      <c r="D22" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>253</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4221,45 +3683,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>329</v>
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4277,6 +3738,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AEFB3F4171EC82428D910BE3234C67FA" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9938e3172c307e2520b2ca526c112a7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c939b9da-575a-4628-a366-c17e4bb2a342" xmlns:ns3="c8706181-32fa-416f-9c27-0f1515637c48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19452efc5c30e30bdaf98fbaeefcd94b" ns2:_="" ns3:_="">
     <xsd:import namespace="c939b9da-575a-4628-a366-c17e4bb2a342"/>
@@ -4493,15 +3963,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E4C7D98-9224-4792-8278-6767F90BC43C}">
   <ds:schemaRefs>
@@ -4512,6 +3973,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B5E1B7-E09F-477B-9864-A5279C450C07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE441E4-67B6-499D-BF40-E41DE41BBCB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4528,12 +3997,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B5E1B7-E09F-477B-9864-A5279C450C07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>